--- a/download/priorizacion/Plantilla_Priorizacion.xlsx
+++ b/download/priorizacion/Plantilla_Priorizacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Proyecto InfoPAE\infopae2019\download\priorizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7E40F5-0EB0-4755-AFC0-7BEBB8FC46E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9B79E8-A6C7-4BCF-BA61-2FC92B044513}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>cod_inst</t>
   </si>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>Etario3_CAJMPS</t>
+  </si>
+  <si>
+    <t>CAJTPS</t>
+  </si>
+  <si>
+    <t>Etario1_CAJTPS</t>
+  </si>
+  <si>
+    <t>Etario2_CAJTPS</t>
+  </si>
+  <si>
+    <t>Etario3_CAJTPS</t>
   </si>
 </sst>
 </file>
@@ -923,18 +935,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -963,40 +998,52 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
